--- a/media/Metaxlsx/總表更新0116.xlsx
+++ b/media/Metaxlsx/總表更新0116.xlsx
@@ -21813,7 +21813,7 @@
     <t>張心怡</t>
   </si>
   <si>
-    <t>OK</t>
+    <t>NG</t>
   </si>
 </sst>
 </file>
